--- a/backend/fms_core/tests/valid_templates/Sample_submission_v4_0_0.xlsx
+++ b/backend/fms_core/tests/valid_templates/Sample_submission_v4_0_0.xlsx
@@ -55,7 +55,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author>UFG</author>
+    <author> </author>
   </authors>
   <commentList>
     <comment ref="B7" authorId="0">
@@ -337,7 +337,7 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author>UFG</author>
+    <author> </author>
   </authors>
   <commentList>
     <comment ref="H3" authorId="0">
@@ -359,7 +359,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3317" uniqueCount="2988">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3318" uniqueCount="2988">
   <si>
     <t xml:space="preserve">SAMPLE SUBMISSION</t>
   </si>
@@ -9385,7 +9385,7 @@
     <numFmt numFmtId="166" formatCode="@"/>
     <numFmt numFmtId="167" formatCode="0;[RED]\-0"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -9460,6 +9460,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -9685,7 +9691,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -9774,11 +9780,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -9786,15 +9792,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="10" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -9806,23 +9816,23 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -10000,9 +10010,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1558080</xdr:colOff>
+      <xdr:colOff>1557720</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10017,7 +10027,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="76320" y="28440"/>
-          <a:ext cx="1481760" cy="541080"/>
+          <a:ext cx="1481400" cy="540720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10955,7 +10965,9 @@
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
+      <c r="J17" s="22" t="s">
+        <v>49</v>
+      </c>
       <c r="K17" s="21"/>
       <c r="L17" s="18"/>
       <c r="M17" s="19"/>
@@ -28872,7 +28884,7 @@
       <c r="AG500" s="21"/>
       <c r="AH500" s="18"/>
       <c r="AI500" s="18"/>
-      <c r="AJ500" s="22"/>
+      <c r="AJ500" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -29033,26 +29045,26 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="J1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="J1" s="25"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="J2" s="24"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="J2" s="25"/>
     </row>
     <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
@@ -29076,7 +29088,7 @@
       <c r="G3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="26" t="s">
         <v>104</v>
       </c>
       <c r="I3" s="9" t="s">
@@ -29085,7 +29097,7 @@
       <c r="J3" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="26"/>
+      <c r="K3" s="27"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="18" t="s">
@@ -29100,7 +29112,7 @@
       <c r="D4" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="E4" s="27"/>
+      <c r="E4" s="28"/>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
       <c r="H4" s="18" t="s">
@@ -29112,1242 +29124,1242 @@
       <c r="J4" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="K4" s="24"/>
+      <c r="K4" s="25"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="18"/>
       <c r="B5" s="18"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
       <c r="F5" s="18"/>
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
       <c r="I5" s="20"/>
       <c r="J5" s="20"/>
-      <c r="K5" s="24"/>
+      <c r="K5" s="25"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="18"/>
       <c r="B6" s="18"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="24"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="25"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="18"/>
       <c r="B7" s="18"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="24"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="25"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="18"/>
       <c r="B8" s="18"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
-      <c r="K8" s="24"/>
+      <c r="K8" s="25"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="18"/>
       <c r="B9" s="18"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
-      <c r="K9" s="24"/>
+      <c r="K9" s="25"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="18"/>
       <c r="B10" s="18"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
-      <c r="K10" s="24"/>
+      <c r="K10" s="25"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="18"/>
       <c r="B11" s="18"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
-      <c r="K11" s="24"/>
+      <c r="K11" s="25"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="18"/>
       <c r="B12" s="18"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
-      <c r="K12" s="24"/>
+      <c r="K12" s="25"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="18"/>
       <c r="B13" s="18"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
       <c r="J13" s="18"/>
-      <c r="K13" s="24"/>
+      <c r="K13" s="25"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="18"/>
       <c r="B14" s="18"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
       <c r="J14" s="18"/>
-      <c r="K14" s="24"/>
+      <c r="K14" s="25"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="18"/>
       <c r="B15" s="18"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
       <c r="J15" s="18"/>
-      <c r="K15" s="24"/>
+      <c r="K15" s="25"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
       <c r="J16" s="18"/>
-      <c r="K16" s="24"/>
+      <c r="K16" s="25"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="18"/>
       <c r="B17" s="18"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
       <c r="J17" s="18"/>
-      <c r="K17" s="24"/>
+      <c r="K17" s="25"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="18"/>
       <c r="B18" s="18"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
-      <c r="K18" s="24"/>
+      <c r="K18" s="25"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="18"/>
       <c r="B19" s="18"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
-      <c r="K19" s="24"/>
+      <c r="K19" s="25"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="18"/>
       <c r="B20" s="18"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
       <c r="J20" s="18"/>
-      <c r="K20" s="24"/>
+      <c r="K20" s="25"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="18"/>
       <c r="B21" s="18"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
-      <c r="K21" s="24"/>
+      <c r="K21" s="25"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="18"/>
       <c r="B22" s="18"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
       <c r="H22" s="18"/>
       <c r="I22" s="18"/>
       <c r="J22" s="18"/>
-      <c r="K22" s="24"/>
+      <c r="K22" s="25"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="18"/>
       <c r="B23" s="18"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
       <c r="H23" s="18"/>
       <c r="I23" s="18"/>
       <c r="J23" s="18"/>
-      <c r="K23" s="24"/>
+      <c r="K23" s="25"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="18"/>
       <c r="B24" s="18"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
       <c r="F24" s="18"/>
       <c r="G24" s="18"/>
       <c r="H24" s="18"/>
       <c r="I24" s="18"/>
       <c r="J24" s="18"/>
-      <c r="K24" s="24"/>
+      <c r="K24" s="25"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="18"/>
       <c r="B25" s="18"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
-      <c r="K25" s="24"/>
+      <c r="K25" s="25"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="18"/>
       <c r="B26" s="18"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
       <c r="H26" s="18"/>
       <c r="I26" s="18"/>
       <c r="J26" s="18"/>
-      <c r="K26" s="24"/>
+      <c r="K26" s="25"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="18"/>
       <c r="B27" s="18"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
       <c r="H27" s="18"/>
       <c r="I27" s="18"/>
       <c r="J27" s="18"/>
-      <c r="K27" s="24"/>
+      <c r="K27" s="25"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="18"/>
       <c r="B28" s="18"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
       <c r="F28" s="18"/>
       <c r="G28" s="18"/>
       <c r="H28" s="18"/>
       <c r="I28" s="18"/>
       <c r="J28" s="18"/>
-      <c r="K28" s="24"/>
+      <c r="K28" s="25"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="18"/>
       <c r="B29" s="18"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
       <c r="F29" s="18"/>
       <c r="G29" s="18"/>
       <c r="H29" s="18"/>
       <c r="I29" s="18"/>
       <c r="J29" s="18"/>
-      <c r="K29" s="24"/>
+      <c r="K29" s="25"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="18"/>
       <c r="B30" s="18"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
       <c r="F30" s="18"/>
       <c r="G30" s="18"/>
       <c r="H30" s="18"/>
       <c r="I30" s="18"/>
       <c r="J30" s="18"/>
-      <c r="K30" s="24"/>
+      <c r="K30" s="25"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="18"/>
       <c r="B31" s="18"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
       <c r="F31" s="18"/>
       <c r="G31" s="18"/>
       <c r="H31" s="18"/>
       <c r="I31" s="18"/>
       <c r="J31" s="18"/>
-      <c r="K31" s="24"/>
+      <c r="K31" s="25"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="18"/>
       <c r="B32" s="18"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
       <c r="F32" s="18"/>
       <c r="G32" s="18"/>
       <c r="H32" s="18"/>
       <c r="I32" s="18"/>
       <c r="J32" s="18"/>
-      <c r="K32" s="24"/>
+      <c r="K32" s="25"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="18"/>
       <c r="B33" s="18"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
       <c r="F33" s="18"/>
       <c r="G33" s="18"/>
       <c r="H33" s="18"/>
       <c r="I33" s="18"/>
       <c r="J33" s="18"/>
-      <c r="K33" s="24"/>
+      <c r="K33" s="25"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="18"/>
       <c r="B34" s="18"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
       <c r="F34" s="18"/>
       <c r="G34" s="18"/>
       <c r="H34" s="18"/>
       <c r="I34" s="18"/>
       <c r="J34" s="18"/>
-      <c r="K34" s="24"/>
+      <c r="K34" s="25"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="18"/>
       <c r="B35" s="18"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
       <c r="F35" s="18"/>
       <c r="G35" s="18"/>
       <c r="H35" s="18"/>
       <c r="I35" s="18"/>
       <c r="J35" s="18"/>
-      <c r="K35" s="24"/>
+      <c r="K35" s="25"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="18"/>
       <c r="B36" s="18"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
       <c r="F36" s="18"/>
       <c r="G36" s="18"/>
       <c r="H36" s="18"/>
       <c r="I36" s="18"/>
       <c r="J36" s="18"/>
-      <c r="K36" s="24"/>
+      <c r="K36" s="25"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="18"/>
       <c r="B37" s="18"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
       <c r="F37" s="18"/>
       <c r="G37" s="18"/>
       <c r="H37" s="18"/>
       <c r="I37" s="18"/>
       <c r="J37" s="18"/>
-      <c r="K37" s="24"/>
+      <c r="K37" s="25"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="18"/>
       <c r="B38" s="18"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
       <c r="F38" s="18"/>
       <c r="G38" s="18"/>
       <c r="H38" s="18"/>
       <c r="I38" s="18"/>
       <c r="J38" s="18"/>
-      <c r="K38" s="24"/>
+      <c r="K38" s="25"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="18"/>
       <c r="B39" s="18"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
       <c r="F39" s="18"/>
       <c r="G39" s="18"/>
       <c r="H39" s="18"/>
       <c r="I39" s="18"/>
       <c r="J39" s="18"/>
-      <c r="K39" s="24"/>
+      <c r="K39" s="25"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="18"/>
       <c r="B40" s="18"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
       <c r="F40" s="18"/>
       <c r="G40" s="18"/>
       <c r="H40" s="18"/>
       <c r="I40" s="18"/>
       <c r="J40" s="18"/>
-      <c r="K40" s="24"/>
+      <c r="K40" s="25"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="18"/>
       <c r="B41" s="18"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
       <c r="F41" s="18"/>
       <c r="G41" s="18"/>
       <c r="H41" s="18"/>
       <c r="I41" s="18"/>
       <c r="J41" s="18"/>
-      <c r="K41" s="24"/>
+      <c r="K41" s="25"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="18"/>
       <c r="B42" s="18"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
       <c r="F42" s="18"/>
       <c r="G42" s="18"/>
       <c r="H42" s="18"/>
       <c r="I42" s="18"/>
       <c r="J42" s="18"/>
-      <c r="K42" s="24"/>
+      <c r="K42" s="25"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="18"/>
       <c r="B43" s="18"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
       <c r="F43" s="18"/>
       <c r="G43" s="18"/>
       <c r="H43" s="18"/>
       <c r="I43" s="18"/>
       <c r="J43" s="18"/>
-      <c r="K43" s="24"/>
+      <c r="K43" s="25"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="18"/>
       <c r="B44" s="18"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
       <c r="F44" s="18"/>
       <c r="G44" s="18"/>
       <c r="H44" s="18"/>
       <c r="I44" s="18"/>
       <c r="J44" s="18"/>
-      <c r="K44" s="24"/>
+      <c r="K44" s="25"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="18"/>
       <c r="B45" s="18"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
       <c r="F45" s="18"/>
       <c r="G45" s="18"/>
       <c r="H45" s="18"/>
       <c r="I45" s="18"/>
       <c r="J45" s="18"/>
-      <c r="K45" s="24"/>
+      <c r="K45" s="25"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="18"/>
       <c r="B46" s="18"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="27"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
       <c r="F46" s="18"/>
       <c r="G46" s="18"/>
       <c r="H46" s="18"/>
       <c r="I46" s="18"/>
       <c r="J46" s="18"/>
-      <c r="K46" s="24"/>
+      <c r="K46" s="25"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="18"/>
       <c r="B47" s="18"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
       <c r="F47" s="18"/>
       <c r="G47" s="18"/>
       <c r="H47" s="18"/>
       <c r="I47" s="18"/>
       <c r="J47" s="18"/>
-      <c r="K47" s="24"/>
+      <c r="K47" s="25"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="18"/>
       <c r="B48" s="18"/>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
       <c r="F48" s="18"/>
       <c r="G48" s="18"/>
       <c r="H48" s="18"/>
       <c r="I48" s="18"/>
       <c r="J48" s="18"/>
-      <c r="K48" s="24"/>
+      <c r="K48" s="25"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="18"/>
       <c r="B49" s="18"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
       <c r="F49" s="18"/>
       <c r="G49" s="18"/>
       <c r="H49" s="18"/>
       <c r="I49" s="18"/>
       <c r="J49" s="18"/>
-      <c r="K49" s="24"/>
+      <c r="K49" s="25"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="18"/>
       <c r="B50" s="18"/>
-      <c r="C50" s="27"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
       <c r="F50" s="18"/>
       <c r="G50" s="18"/>
       <c r="H50" s="18"/>
       <c r="I50" s="18"/>
       <c r="J50" s="18"/>
-      <c r="K50" s="24"/>
+      <c r="K50" s="25"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="18"/>
       <c r="B51" s="18"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="28"/>
       <c r="F51" s="18"/>
       <c r="G51" s="18"/>
       <c r="H51" s="18"/>
       <c r="I51" s="18"/>
       <c r="J51" s="18"/>
-      <c r="K51" s="24"/>
+      <c r="K51" s="25"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="18"/>
       <c r="B52" s="18"/>
-      <c r="C52" s="27"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
       <c r="F52" s="18"/>
       <c r="G52" s="18"/>
       <c r="H52" s="18"/>
       <c r="I52" s="18"/>
       <c r="J52" s="18"/>
-      <c r="K52" s="24"/>
+      <c r="K52" s="25"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="18"/>
       <c r="B53" s="18"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
       <c r="F53" s="18"/>
       <c r="G53" s="18"/>
       <c r="H53" s="18"/>
       <c r="I53" s="18"/>
       <c r="J53" s="18"/>
-      <c r="K53" s="24"/>
+      <c r="K53" s="25"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="18"/>
       <c r="B54" s="18"/>
-      <c r="C54" s="27"/>
-      <c r="D54" s="27"/>
-      <c r="E54" s="27"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="28"/>
       <c r="F54" s="18"/>
       <c r="G54" s="18"/>
       <c r="H54" s="18"/>
       <c r="I54" s="18"/>
       <c r="J54" s="18"/>
-      <c r="K54" s="24"/>
+      <c r="K54" s="25"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="18"/>
       <c r="B55" s="18"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
       <c r="F55" s="18"/>
       <c r="G55" s="18"/>
       <c r="H55" s="18"/>
       <c r="I55" s="18"/>
       <c r="J55" s="18"/>
-      <c r="K55" s="24"/>
+      <c r="K55" s="25"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="18"/>
       <c r="B56" s="18"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
       <c r="F56" s="18"/>
       <c r="G56" s="18"/>
       <c r="H56" s="18"/>
       <c r="I56" s="18"/>
       <c r="J56" s="18"/>
-      <c r="K56" s="24"/>
+      <c r="K56" s="25"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="18"/>
       <c r="B57" s="18"/>
-      <c r="C57" s="27"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="27"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="28"/>
       <c r="F57" s="18"/>
       <c r="G57" s="18"/>
       <c r="H57" s="18"/>
       <c r="I57" s="18"/>
       <c r="J57" s="18"/>
-      <c r="K57" s="24"/>
+      <c r="K57" s="25"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="18"/>
       <c r="B58" s="18"/>
-      <c r="C58" s="27"/>
-      <c r="D58" s="27"/>
-      <c r="E58" s="27"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="28"/>
       <c r="F58" s="18"/>
       <c r="G58" s="18"/>
       <c r="H58" s="18"/>
       <c r="I58" s="18"/>
       <c r="J58" s="18"/>
-      <c r="K58" s="24"/>
+      <c r="K58" s="25"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="18"/>
       <c r="B59" s="18"/>
-      <c r="C59" s="27"/>
-      <c r="D59" s="27"/>
-      <c r="E59" s="27"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
       <c r="F59" s="18"/>
       <c r="G59" s="18"/>
       <c r="H59" s="18"/>
       <c r="I59" s="18"/>
       <c r="J59" s="18"/>
-      <c r="K59" s="24"/>
+      <c r="K59" s="25"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="18"/>
       <c r="B60" s="18"/>
-      <c r="C60" s="27"/>
-      <c r="D60" s="27"/>
-      <c r="E60" s="27"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
       <c r="F60" s="18"/>
       <c r="G60" s="18"/>
       <c r="H60" s="18"/>
       <c r="I60" s="18"/>
       <c r="J60" s="18"/>
-      <c r="K60" s="24"/>
+      <c r="K60" s="25"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="18"/>
       <c r="B61" s="18"/>
-      <c r="C61" s="27"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="27"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="28"/>
       <c r="F61" s="18"/>
       <c r="G61" s="18"/>
       <c r="H61" s="18"/>
       <c r="I61" s="18"/>
       <c r="J61" s="18"/>
-      <c r="K61" s="24"/>
+      <c r="K61" s="25"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="18"/>
       <c r="B62" s="18"/>
-      <c r="C62" s="27"/>
-      <c r="D62" s="27"/>
-      <c r="E62" s="27"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
       <c r="F62" s="18"/>
       <c r="G62" s="18"/>
       <c r="H62" s="18"/>
       <c r="I62" s="18"/>
       <c r="J62" s="18"/>
-      <c r="K62" s="24"/>
+      <c r="K62" s="25"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="18"/>
       <c r="B63" s="18"/>
-      <c r="C63" s="27"/>
-      <c r="D63" s="27"/>
-      <c r="E63" s="27"/>
+      <c r="C63" s="28"/>
+      <c r="D63" s="28"/>
+      <c r="E63" s="28"/>
       <c r="F63" s="18"/>
       <c r="G63" s="18"/>
       <c r="H63" s="18"/>
       <c r="I63" s="18"/>
       <c r="J63" s="18"/>
-      <c r="K63" s="24"/>
+      <c r="K63" s="25"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="18"/>
       <c r="B64" s="18"/>
-      <c r="C64" s="27"/>
-      <c r="D64" s="27"/>
-      <c r="E64" s="27"/>
+      <c r="C64" s="28"/>
+      <c r="D64" s="28"/>
+      <c r="E64" s="28"/>
       <c r="F64" s="18"/>
       <c r="G64" s="18"/>
       <c r="H64" s="18"/>
       <c r="I64" s="18"/>
       <c r="J64" s="18"/>
-      <c r="K64" s="24"/>
+      <c r="K64" s="25"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="18"/>
       <c r="B65" s="18"/>
-      <c r="C65" s="27"/>
-      <c r="D65" s="27"/>
-      <c r="E65" s="27"/>
+      <c r="C65" s="28"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="28"/>
       <c r="F65" s="18"/>
       <c r="G65" s="18"/>
       <c r="H65" s="18"/>
       <c r="I65" s="18"/>
       <c r="J65" s="18"/>
-      <c r="K65" s="24"/>
+      <c r="K65" s="25"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="18"/>
       <c r="B66" s="18"/>
-      <c r="C66" s="27"/>
-      <c r="D66" s="27"/>
-      <c r="E66" s="27"/>
+      <c r="C66" s="28"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="28"/>
       <c r="F66" s="18"/>
       <c r="G66" s="18"/>
       <c r="H66" s="18"/>
       <c r="I66" s="18"/>
       <c r="J66" s="18"/>
-      <c r="K66" s="24"/>
+      <c r="K66" s="25"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="18"/>
       <c r="B67" s="18"/>
-      <c r="C67" s="27"/>
-      <c r="D67" s="27"/>
-      <c r="E67" s="27"/>
+      <c r="C67" s="28"/>
+      <c r="D67" s="28"/>
+      <c r="E67" s="28"/>
       <c r="F67" s="18"/>
       <c r="G67" s="18"/>
       <c r="H67" s="18"/>
       <c r="I67" s="18"/>
       <c r="J67" s="18"/>
-      <c r="K67" s="24"/>
+      <c r="K67" s="25"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="18"/>
       <c r="B68" s="18"/>
-      <c r="C68" s="27"/>
-      <c r="D68" s="27"/>
-      <c r="E68" s="27"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
       <c r="F68" s="18"/>
       <c r="G68" s="18"/>
       <c r="H68" s="18"/>
       <c r="I68" s="18"/>
       <c r="J68" s="18"/>
-      <c r="K68" s="24"/>
+      <c r="K68" s="25"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="18"/>
       <c r="B69" s="18"/>
-      <c r="C69" s="27"/>
-      <c r="D69" s="27"/>
-      <c r="E69" s="27"/>
+      <c r="C69" s="28"/>
+      <c r="D69" s="28"/>
+      <c r="E69" s="28"/>
       <c r="F69" s="18"/>
       <c r="G69" s="18"/>
       <c r="H69" s="18"/>
       <c r="I69" s="18"/>
       <c r="J69" s="18"/>
-      <c r="K69" s="24"/>
+      <c r="K69" s="25"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="18"/>
       <c r="B70" s="18"/>
-      <c r="C70" s="27"/>
-      <c r="D70" s="27"/>
-      <c r="E70" s="27"/>
+      <c r="C70" s="28"/>
+      <c r="D70" s="28"/>
+      <c r="E70" s="28"/>
       <c r="F70" s="18"/>
       <c r="G70" s="18"/>
       <c r="H70" s="18"/>
       <c r="I70" s="18"/>
       <c r="J70" s="18"/>
-      <c r="K70" s="24"/>
+      <c r="K70" s="25"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="18"/>
       <c r="B71" s="18"/>
-      <c r="C71" s="27"/>
-      <c r="D71" s="27"/>
-      <c r="E71" s="27"/>
+      <c r="C71" s="28"/>
+      <c r="D71" s="28"/>
+      <c r="E71" s="28"/>
       <c r="F71" s="18"/>
       <c r="G71" s="18"/>
       <c r="H71" s="18"/>
       <c r="I71" s="18"/>
       <c r="J71" s="18"/>
-      <c r="K71" s="24"/>
+      <c r="K71" s="25"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="18"/>
       <c r="B72" s="18"/>
-      <c r="C72" s="27"/>
-      <c r="D72" s="27"/>
-      <c r="E72" s="27"/>
+      <c r="C72" s="28"/>
+      <c r="D72" s="28"/>
+      <c r="E72" s="28"/>
       <c r="F72" s="18"/>
       <c r="G72" s="18"/>
       <c r="H72" s="18"/>
       <c r="I72" s="18"/>
       <c r="J72" s="18"/>
-      <c r="K72" s="24"/>
+      <c r="K72" s="25"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="18"/>
       <c r="B73" s="18"/>
-      <c r="C73" s="27"/>
-      <c r="D73" s="27"/>
-      <c r="E73" s="27"/>
+      <c r="C73" s="28"/>
+      <c r="D73" s="28"/>
+      <c r="E73" s="28"/>
       <c r="F73" s="18"/>
       <c r="G73" s="18"/>
       <c r="H73" s="18"/>
       <c r="I73" s="18"/>
       <c r="J73" s="18"/>
-      <c r="K73" s="24"/>
+      <c r="K73" s="25"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="18"/>
       <c r="B74" s="18"/>
-      <c r="C74" s="27"/>
-      <c r="D74" s="27"/>
-      <c r="E74" s="27"/>
+      <c r="C74" s="28"/>
+      <c r="D74" s="28"/>
+      <c r="E74" s="28"/>
       <c r="F74" s="18"/>
       <c r="G74" s="18"/>
       <c r="H74" s="18"/>
       <c r="I74" s="18"/>
       <c r="J74" s="18"/>
-      <c r="K74" s="24"/>
+      <c r="K74" s="25"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="18"/>
       <c r="B75" s="18"/>
-      <c r="C75" s="27"/>
-      <c r="D75" s="27"/>
-      <c r="E75" s="27"/>
+      <c r="C75" s="28"/>
+      <c r="D75" s="28"/>
+      <c r="E75" s="28"/>
       <c r="F75" s="18"/>
       <c r="G75" s="18"/>
       <c r="H75" s="18"/>
       <c r="I75" s="18"/>
       <c r="J75" s="18"/>
-      <c r="K75" s="24"/>
+      <c r="K75" s="25"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="18"/>
       <c r="B76" s="18"/>
-      <c r="C76" s="27"/>
-      <c r="D76" s="27"/>
-      <c r="E76" s="27"/>
+      <c r="C76" s="28"/>
+      <c r="D76" s="28"/>
+      <c r="E76" s="28"/>
       <c r="F76" s="18"/>
       <c r="G76" s="18"/>
       <c r="H76" s="18"/>
       <c r="I76" s="18"/>
       <c r="J76" s="18"/>
-      <c r="K76" s="24"/>
+      <c r="K76" s="25"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="18"/>
       <c r="B77" s="18"/>
-      <c r="C77" s="27"/>
-      <c r="D77" s="27"/>
-      <c r="E77" s="27"/>
+      <c r="C77" s="28"/>
+      <c r="D77" s="28"/>
+      <c r="E77" s="28"/>
       <c r="F77" s="18"/>
       <c r="G77" s="18"/>
       <c r="H77" s="18"/>
       <c r="I77" s="18"/>
       <c r="J77" s="18"/>
-      <c r="K77" s="24"/>
+      <c r="K77" s="25"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="18"/>
       <c r="B78" s="18"/>
-      <c r="C78" s="27"/>
-      <c r="D78" s="27"/>
-      <c r="E78" s="27"/>
+      <c r="C78" s="28"/>
+      <c r="D78" s="28"/>
+      <c r="E78" s="28"/>
       <c r="F78" s="18"/>
       <c r="G78" s="18"/>
       <c r="H78" s="18"/>
       <c r="I78" s="18"/>
       <c r="J78" s="18"/>
-      <c r="K78" s="24"/>
+      <c r="K78" s="25"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="18"/>
       <c r="B79" s="18"/>
-      <c r="C79" s="27"/>
-      <c r="D79" s="27"/>
-      <c r="E79" s="27"/>
+      <c r="C79" s="28"/>
+      <c r="D79" s="28"/>
+      <c r="E79" s="28"/>
       <c r="F79" s="18"/>
       <c r="G79" s="18"/>
       <c r="H79" s="18"/>
       <c r="I79" s="18"/>
       <c r="J79" s="18"/>
-      <c r="K79" s="24"/>
+      <c r="K79" s="25"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="18"/>
       <c r="B80" s="18"/>
-      <c r="C80" s="27"/>
-      <c r="D80" s="27"/>
-      <c r="E80" s="27"/>
+      <c r="C80" s="28"/>
+      <c r="D80" s="28"/>
+      <c r="E80" s="28"/>
       <c r="F80" s="18"/>
       <c r="G80" s="18"/>
       <c r="H80" s="18"/>
       <c r="I80" s="18"/>
       <c r="J80" s="18"/>
-      <c r="K80" s="24"/>
+      <c r="K80" s="25"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="18"/>
       <c r="B81" s="18"/>
-      <c r="C81" s="27"/>
-      <c r="D81" s="27"/>
-      <c r="E81" s="27"/>
+      <c r="C81" s="28"/>
+      <c r="D81" s="28"/>
+      <c r="E81" s="28"/>
       <c r="F81" s="18"/>
       <c r="G81" s="18"/>
       <c r="H81" s="18"/>
       <c r="I81" s="18"/>
       <c r="J81" s="18"/>
-      <c r="K81" s="24"/>
+      <c r="K81" s="25"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="18"/>
       <c r="B82" s="18"/>
-      <c r="C82" s="27"/>
-      <c r="D82" s="27"/>
-      <c r="E82" s="27"/>
+      <c r="C82" s="28"/>
+      <c r="D82" s="28"/>
+      <c r="E82" s="28"/>
       <c r="F82" s="18"/>
       <c r="G82" s="18"/>
       <c r="H82" s="18"/>
       <c r="I82" s="18"/>
       <c r="J82" s="18"/>
-      <c r="K82" s="24"/>
+      <c r="K82" s="25"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="18"/>
       <c r="B83" s="18"/>
-      <c r="C83" s="27"/>
-      <c r="D83" s="27"/>
-      <c r="E83" s="27"/>
+      <c r="C83" s="28"/>
+      <c r="D83" s="28"/>
+      <c r="E83" s="28"/>
       <c r="F83" s="18"/>
       <c r="G83" s="18"/>
       <c r="H83" s="18"/>
       <c r="I83" s="18"/>
       <c r="J83" s="18"/>
-      <c r="K83" s="24"/>
+      <c r="K83" s="25"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="18"/>
       <c r="B84" s="18"/>
-      <c r="C84" s="27"/>
-      <c r="D84" s="27"/>
-      <c r="E84" s="27"/>
+      <c r="C84" s="28"/>
+      <c r="D84" s="28"/>
+      <c r="E84" s="28"/>
       <c r="F84" s="18"/>
       <c r="G84" s="18"/>
       <c r="H84" s="18"/>
       <c r="I84" s="18"/>
       <c r="J84" s="18"/>
-      <c r="K84" s="24"/>
+      <c r="K84" s="25"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="18"/>
       <c r="B85" s="18"/>
-      <c r="C85" s="27"/>
-      <c r="D85" s="27"/>
-      <c r="E85" s="27"/>
+      <c r="C85" s="28"/>
+      <c r="D85" s="28"/>
+      <c r="E85" s="28"/>
       <c r="F85" s="18"/>
       <c r="G85" s="18"/>
       <c r="H85" s="18"/>
       <c r="I85" s="18"/>
       <c r="J85" s="18"/>
-      <c r="K85" s="24"/>
+      <c r="K85" s="25"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="18"/>
       <c r="B86" s="18"/>
-      <c r="C86" s="27"/>
-      <c r="D86" s="27"/>
-      <c r="E86" s="27"/>
+      <c r="C86" s="28"/>
+      <c r="D86" s="28"/>
+      <c r="E86" s="28"/>
       <c r="F86" s="18"/>
       <c r="G86" s="18"/>
       <c r="H86" s="18"/>
       <c r="I86" s="18"/>
       <c r="J86" s="18"/>
-      <c r="K86" s="24"/>
+      <c r="K86" s="25"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="18"/>
       <c r="B87" s="18"/>
-      <c r="C87" s="27"/>
-      <c r="D87" s="27"/>
-      <c r="E87" s="27"/>
+      <c r="C87" s="28"/>
+      <c r="D87" s="28"/>
+      <c r="E87" s="28"/>
       <c r="F87" s="18"/>
       <c r="G87" s="18"/>
       <c r="H87" s="18"/>
       <c r="I87" s="18"/>
       <c r="J87" s="18"/>
-      <c r="K87" s="24"/>
+      <c r="K87" s="25"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="18"/>
       <c r="B88" s="18"/>
-      <c r="C88" s="27"/>
-      <c r="D88" s="27"/>
-      <c r="E88" s="27"/>
+      <c r="C88" s="28"/>
+      <c r="D88" s="28"/>
+      <c r="E88" s="28"/>
       <c r="F88" s="18"/>
       <c r="G88" s="18"/>
       <c r="H88" s="18"/>
       <c r="I88" s="18"/>
       <c r="J88" s="18"/>
-      <c r="K88" s="24"/>
+      <c r="K88" s="25"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="18"/>
       <c r="B89" s="18"/>
-      <c r="C89" s="27"/>
-      <c r="D89" s="27"/>
-      <c r="E89" s="27"/>
+      <c r="C89" s="28"/>
+      <c r="D89" s="28"/>
+      <c r="E89" s="28"/>
       <c r="F89" s="18"/>
       <c r="G89" s="18"/>
       <c r="H89" s="18"/>
       <c r="I89" s="18"/>
       <c r="J89" s="18"/>
-      <c r="K89" s="24"/>
+      <c r="K89" s="25"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="18"/>
       <c r="B90" s="18"/>
-      <c r="C90" s="27"/>
-      <c r="D90" s="27"/>
-      <c r="E90" s="27"/>
+      <c r="C90" s="28"/>
+      <c r="D90" s="28"/>
+      <c r="E90" s="28"/>
       <c r="F90" s="18"/>
       <c r="G90" s="18"/>
       <c r="H90" s="18"/>
       <c r="I90" s="18"/>
       <c r="J90" s="18"/>
-      <c r="K90" s="24"/>
+      <c r="K90" s="25"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="18"/>
       <c r="B91" s="18"/>
-      <c r="C91" s="27"/>
-      <c r="D91" s="27"/>
-      <c r="E91" s="27"/>
+      <c r="C91" s="28"/>
+      <c r="D91" s="28"/>
+      <c r="E91" s="28"/>
       <c r="F91" s="18"/>
       <c r="G91" s="18"/>
       <c r="H91" s="18"/>
       <c r="I91" s="18"/>
       <c r="J91" s="18"/>
-      <c r="K91" s="24"/>
+      <c r="K91" s="25"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="18"/>
       <c r="B92" s="18"/>
-      <c r="C92" s="27"/>
-      <c r="D92" s="27"/>
-      <c r="E92" s="27"/>
+      <c r="C92" s="28"/>
+      <c r="D92" s="28"/>
+      <c r="E92" s="28"/>
       <c r="F92" s="18"/>
       <c r="G92" s="18"/>
       <c r="H92" s="18"/>
       <c r="I92" s="18"/>
       <c r="J92" s="18"/>
-      <c r="K92" s="24"/>
+      <c r="K92" s="25"/>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="18"/>
       <c r="B93" s="18"/>
-      <c r="C93" s="27"/>
-      <c r="D93" s="27"/>
-      <c r="E93" s="27"/>
+      <c r="C93" s="28"/>
+      <c r="D93" s="28"/>
+      <c r="E93" s="28"/>
       <c r="F93" s="18"/>
       <c r="G93" s="18"/>
       <c r="H93" s="18"/>
       <c r="I93" s="18"/>
       <c r="J93" s="18"/>
-      <c r="K93" s="24"/>
+      <c r="K93" s="25"/>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="18"/>
       <c r="B94" s="18"/>
-      <c r="C94" s="27"/>
-      <c r="D94" s="27"/>
-      <c r="E94" s="27"/>
+      <c r="C94" s="28"/>
+      <c r="D94" s="28"/>
+      <c r="E94" s="28"/>
       <c r="F94" s="18"/>
       <c r="G94" s="18"/>
       <c r="H94" s="18"/>
       <c r="I94" s="18"/>
       <c r="J94" s="18"/>
-      <c r="K94" s="24"/>
+      <c r="K94" s="25"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="18"/>
       <c r="B95" s="18"/>
-      <c r="C95" s="27"/>
-      <c r="D95" s="27"/>
-      <c r="E95" s="27"/>
+      <c r="C95" s="28"/>
+      <c r="D95" s="28"/>
+      <c r="E95" s="28"/>
       <c r="F95" s="18"/>
       <c r="G95" s="18"/>
       <c r="H95" s="18"/>
       <c r="I95" s="18"/>
       <c r="J95" s="18"/>
-      <c r="K95" s="24"/>
+      <c r="K95" s="25"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="18"/>
       <c r="B96" s="18"/>
-      <c r="C96" s="27"/>
-      <c r="D96" s="27"/>
-      <c r="E96" s="27"/>
+      <c r="C96" s="28"/>
+      <c r="D96" s="28"/>
+      <c r="E96" s="28"/>
       <c r="F96" s="18"/>
       <c r="G96" s="18"/>
       <c r="H96" s="18"/>
       <c r="I96" s="18"/>
       <c r="J96" s="18"/>
-      <c r="K96" s="24"/>
+      <c r="K96" s="25"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="18"/>
       <c r="B97" s="18"/>
-      <c r="C97" s="27"/>
-      <c r="D97" s="27"/>
-      <c r="E97" s="27"/>
+      <c r="C97" s="28"/>
+      <c r="D97" s="28"/>
+      <c r="E97" s="28"/>
       <c r="F97" s="18"/>
       <c r="G97" s="18"/>
       <c r="H97" s="18"/>
       <c r="I97" s="18"/>
       <c r="J97" s="18"/>
-      <c r="K97" s="24"/>
+      <c r="K97" s="25"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="18"/>
       <c r="B98" s="18"/>
-      <c r="C98" s="27"/>
-      <c r="D98" s="27"/>
-      <c r="E98" s="27"/>
+      <c r="C98" s="28"/>
+      <c r="D98" s="28"/>
+      <c r="E98" s="28"/>
       <c r="F98" s="18"/>
       <c r="G98" s="18"/>
       <c r="H98" s="18"/>
       <c r="I98" s="18"/>
       <c r="J98" s="18"/>
-      <c r="K98" s="24"/>
+      <c r="K98" s="25"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="18"/>
       <c r="B99" s="18"/>
-      <c r="C99" s="27"/>
-      <c r="D99" s="27"/>
-      <c r="E99" s="27"/>
+      <c r="C99" s="28"/>
+      <c r="D99" s="28"/>
+      <c r="E99" s="28"/>
       <c r="F99" s="18"/>
       <c r="G99" s="18"/>
       <c r="H99" s="18"/>
       <c r="I99" s="18"/>
       <c r="J99" s="18"/>
-      <c r="K99" s="24"/>
+      <c r="K99" s="25"/>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="18"/>
@@ -35225,95 +35237,95 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="28.66"/>
   </cols>
   <sheetData>
-    <row r="1" s="34" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="30" t="s">
+    <row r="1" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="L1" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="M1" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="N1" s="30" t="s">
+      <c r="N1" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="32" t="s">
+      <c r="O1" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="P1" s="33" t="s">
+      <c r="P1" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="33" t="s">
+      <c r="Q1" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="R1" s="33" t="s">
+      <c r="R1" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="S1" s="33" t="s">
+      <c r="S1" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="T1" s="33" t="s">
+      <c r="T1" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="U1" s="33" t="s">
+      <c r="U1" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="V1" s="33" t="s">
+      <c r="V1" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="W1" s="33" t="s">
+      <c r="W1" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="X1" s="33" t="s">
+      <c r="X1" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="Y1" s="33" t="s">
+      <c r="Y1" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="Z1" s="33" t="s">
+      <c r="Z1" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="AA1" s="33" t="s">
+      <c r="AA1" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="AB1" s="33" t="s">
+      <c r="AB1" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="AC1" s="33" t="s">
+      <c r="AC1" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="AD1" s="33" t="s">
+      <c r="AD1" s="34" t="s">
         <v>128</v>
       </c>
     </row>
@@ -35336,7 +35348,7 @@
       <c r="F2" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="35" t="n">
+      <c r="G2" s="36" t="n">
         <v>9606</v>
       </c>
       <c r="H2" s="0" t="s">
@@ -35354,7 +35366,7 @@
       <c r="L2" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="M2" s="36" t="s">
+      <c r="M2" s="37" t="s">
         <v>131</v>
       </c>
       <c r="N2" s="0" t="s">
@@ -35425,7 +35437,7 @@
       <c r="F3" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="G3" s="35" t="n">
+      <c r="G3" s="36" t="n">
         <v>10090</v>
       </c>
       <c r="H3" s="0" t="s">
@@ -35443,7 +35455,7 @@
       <c r="L3" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="M3" s="36" t="s">
+      <c r="M3" s="37" t="s">
         <v>107</v>
       </c>
       <c r="N3" s="0" t="s">
@@ -35511,7 +35523,7 @@
       <c r="E4" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="G4" s="35" t="n">
+      <c r="G4" s="36" t="n">
         <v>2697049</v>
       </c>
       <c r="H4" s="0" t="s">
@@ -35526,7 +35538,7 @@
       <c r="K4" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="M4" s="36" t="s">
+      <c r="M4" s="37" t="s">
         <v>172</v>
       </c>
       <c r="N4" s="0" t="s">
@@ -35594,10 +35606,10 @@
       <c r="E5" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="F5" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="G5" s="35" t="n">
+      <c r="G5" s="36" t="n">
         <v>6945</v>
       </c>
       <c r="J5" s="0" t="s">
@@ -35606,7 +35618,7 @@
       <c r="K5" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="M5" s="36" t="s">
+      <c r="M5" s="37" t="s">
         <v>192</v>
       </c>
       <c r="N5" s="0" t="s">
@@ -35899,7 +35911,7 @@
       <c r="G9" s="0" t="n">
         <v>139</v>
       </c>
-      <c r="H9" s="31" t="s">
+      <c r="H9" s="32" t="s">
         <v>263</v>
       </c>
       <c r="N9" s="0" t="s">
@@ -35967,7 +35979,7 @@
       <c r="E10" s="0" t="s">
         <v>280</v>
       </c>
-      <c r="F10" s="31" t="s">
+      <c r="F10" s="32" t="s">
         <v>281</v>
       </c>
       <c r="G10" s="0" t="n">
@@ -36313,13 +36325,13 @@
       <c r="G15" s="0" t="n">
         <v>8038</v>
       </c>
-      <c r="K15" s="30" t="s">
+      <c r="K15" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="L15" s="30" t="s">
+      <c r="L15" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="M15" s="30" t="s">
+      <c r="M15" s="31" t="s">
         <v>370</v>
       </c>
       <c r="N15" s="0" t="s">
@@ -36372,7 +36384,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="31" t="s">
         <v>386</v>
       </c>
       <c r="D16" s="0" t="s">
@@ -36381,7 +36393,7 @@
       <c r="E16" s="0" t="s">
         <v>388</v>
       </c>
-      <c r="F16" s="31" t="s">
+      <c r="F16" s="32" t="s">
         <v>389</v>
       </c>
       <c r="G16" s="0" t="n">
@@ -36836,7 +36848,7 @@
       <c r="E23" s="0" t="s">
         <v>521</v>
       </c>
-      <c r="F23" s="31" t="s">
+      <c r="F23" s="32" t="s">
         <v>522</v>
       </c>
       <c r="P23" s="0" t="s">
@@ -37305,7 +37317,7 @@
       <c r="E31" s="0" t="s">
         <v>445</v>
       </c>
-      <c r="F31" s="31" t="s">
+      <c r="F31" s="32" t="s">
         <v>660</v>
       </c>
       <c r="P31" s="0" t="s">
@@ -37833,7 +37845,7 @@
       <c r="E40" s="0" t="s">
         <v>816</v>
       </c>
-      <c r="F40" s="31" t="s">
+      <c r="F40" s="32" t="s">
         <v>817</v>
       </c>
       <c r="P40" s="0" t="s">
